--- a/Spreadsheet Applications/Using the Data Analysis, Solver, and Scenario Features, and Building Complex Formulas/Staffing Analysis.xlsx
+++ b/Spreadsheet Applications/Using the Data Analysis, Solver, and Scenario Features, and Building Complex Formulas/Staffing Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Using the Data Analysis^J Solver^J and Scenario Features^J and Building Complex Formulas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1228" documentId="11_085A0C5294F3E31D67BDB14878C276DF4900C937" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84BF0B99-D02B-4978-B014-E483B4EFC6BA}"/>
+  <xr:revisionPtr revIDLastSave="1233" documentId="11_085A0C5294F3E31D67BDB14878C276DF4900C937" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB94DC88-D7B8-4E43-9946-40E6A1D590FF}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3270" windowWidth="28800" windowHeight="15285" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario Summary" sheetId="3" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1126,10 +1126,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -1422,8 +1418,8 @@
   </sheetPr>
   <dimension ref="B1:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:G12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1647,18 +1643,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2117,21 +2114,20 @@
     <mergeCell ref="A15:B15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:Q105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4262,9 +4258,11 @@
       <formula>NOT(ISERROR(SEARCH("Eligible",Q3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="36" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
